--- a/data/trans_dic/P32E$calle_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1030,7 +1030,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$calle_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Edad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4015473182506018</v>
+        <v>0.4015473182506019</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3419199960326991</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1714327773348602</v>
+        <v>0.1853859302571822</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1006154421106502</v>
+        <v>0.1008632934521172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2120429384135224</v>
+        <v>0.1985062590934842</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6992641172765571</v>
+        <v>0.6769197979081346</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6992923709446482</v>
+        <v>0.6625275428744009</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6006565190308919</v>
+        <v>0.5755008358293252</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03302646818534425</v>
+        <v>0.03601900842505125</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03027628195102786</v>
+        <v>0.03035640222017684</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3256735149601517</v>
+        <v>0.3236086324282182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4151102584284612</v>
+        <v>0.4108559768158638</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2693714027184847</v>
+        <v>0.2691577600158732</v>
       </c>
     </row>
     <row r="10">
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0769883578297943</v>
+        <v>0.07298424982370096</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.06278576512638863</v>
+        <v>0.06311575138094966</v>
       </c>
     </row>
     <row r="12">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3801249586524981</v>
+        <v>0.3857409661751294</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3198322160203613</v>
+        <v>0.3161057634090614</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>0.06251504034666387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1446499124892504</v>
+        <v>0.1446499124892503</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06458184769901583</v>
+        <v>0.0628726618267874</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05305524650922112</v>
+        <v>0.06349867422072737</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3477212562433342</v>
+        <v>0.3463113316075868</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2862525729186337</v>
+        <v>0.2623344320170479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2703712876274885</v>
+        <v>0.2858532569020774</v>
       </c>
     </row>
     <row r="16">
@@ -813,10 +813,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.4688082518489015</v>
+        <v>0.4757638104919906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1303225886617542</v>
+        <v>0.1156140868358279</v>
       </c>
     </row>
     <row r="19">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0335208828153824</v>
+        <v>0.03241458690304608</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3979472999475383</v>
+        <v>0.3662375255313278</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5110923944753316</v>
+        <v>0.5222428280679834</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3279838980352192</v>
+        <v>0.329968589918036</v>
       </c>
     </row>
     <row r="22">
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4211545785287124</v>
+        <v>0.3220463108544143</v>
       </c>
     </row>
     <row r="25">
@@ -940,7 +940,7 @@
         <v>0.1744712219838913</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1571953754919922</v>
+        <v>0.1571953754919921</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.1695575014106997</v>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07625386904821474</v>
+        <v>0.07416928853873299</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1147421635213157</v>
+        <v>0.1141848791583843</v>
       </c>
     </row>
     <row r="27">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2855919027166107</v>
+        <v>0.2768327104271247</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2323980087816395</v>
+        <v>0.2338994735943356</v>
       </c>
     </row>
     <row r="28">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5066</v>
+        <v>5479</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10075</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="7">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20665</v>
+        <v>20004</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12560</v>
+        <v>11900</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28539</v>
+        <v>27344</v>
       </c>
     </row>
     <row r="8">
@@ -1194,13 +1194,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>922</v>
+        <v>1006</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1329</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="11">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9094</v>
+        <v>9036</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6630</v>
+        <v>6562</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11824</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="12">
@@ -1266,11 +1266,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2285</v>
+        <v>2166</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>2277</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="15">
@@ -1281,11 +1281,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11284</v>
+        <v>11450</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>11602</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="16">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1968</v>
+        <v>1916</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2186</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="19">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10594</v>
+        <v>10551</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3073</v>
+        <v>2817</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11141</v>
+        <v>11779</v>
       </c>
     </row>
     <row r="20">
@@ -1422,10 +1422,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>3146</v>
+        <v>3193</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3903</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="24">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5759</v>
+        <v>5300</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6008</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="28">
@@ -1565,7 +1565,7 @@
         <v>2368</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3584</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="32">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4894</v>
+        <v>4761</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>25894</v>
+        <v>25768</v>
       </c>
     </row>
     <row r="35">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18331</v>
+        <v>17769</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>52445</v>
+        <v>52784</v>
       </c>
     </row>
     <row r="36">
